--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB_TUTORIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CEFCE5-F43F-49B9-AC15-8A79E87BD69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F3A52-362C-472C-BF13-408CC2BD97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Saurabh Kumar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +355,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>